--- a/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE535367-623A-4A95-869C-A80C5566CD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159F3F9-2CDD-449C-B6B2-FAF9029AFAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="560" windowWidth="18053" windowHeight="13840" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="31065" yWindow="2280" windowWidth="21600" windowHeight="11100" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -959,7 +959,7 @@
     <t>$D$58</t>
   </si>
   <si>
-    <t>generic_v00_01</t>
+    <t>generic_v01_00</t>
   </si>
 </sst>
 </file>
@@ -2457,17 +2457,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2521,13 +2521,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -2597,12 +2597,12 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
     </row>
-    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="41"/>
     </row>
-    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="41"/>
     </row>
-    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="41"/>
     </row>
-    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="41"/>
     </row>
-    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="41"/>
     </row>
-    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="41"/>
     </row>
-    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="41"/>
     </row>
-    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="51" t="s">
         <v>13</v>
       </c>
@@ -2701,12 +2701,12 @@
       <c r="E18" s="25"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -2740,12 +2740,12 @@
       <c r="AF21" s="46"/>
       <c r="AG21" s="46"/>
     </row>
-    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG22" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="47" t="s">
         <v>14</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="E23" s="47"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="47" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="47" t="s">
         <v>16</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="E26" s="47"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="E27" s="47"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="47" t="s">
         <v>19</v>
       </c>
@@ -2798,12 +2798,12 @@
       <c r="F28" s="41"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -2837,12 +2837,12 @@
       <c r="AF30" s="46"/>
       <c r="AG30" s="46"/>
     </row>
-    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG31" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="41" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="E32" s="44"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="E33" s="44"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="41" t="s">
         <v>22</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="E34" s="44"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="41" t="s">
         <v>23</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="E35" s="44"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="41" t="s">
         <v>24</v>
       </c>
@@ -2887,12 +2887,12 @@
       <c r="E36" s="44"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG37" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -2926,12 +2926,12 @@
       <c r="AF38" s="46"/>
       <c r="AG38" s="46"/>
     </row>
-    <row r="39" spans="2:33" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:33" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AG39" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="41" t="s">
         <v>25</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B41" s="41" t="s">
         <v>27</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>28</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="D42" s="42"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="D43" s="42"/>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
@@ -2974,12 +2974,12 @@
       <c r="D44" s="42"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG45" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
@@ -3013,13 +3013,13 @@
       <c r="AF46" s="46"/>
       <c r="AG46" s="46"/>
     </row>
-    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="41"/>
       <c r="AG47" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B49" s="36" t="s">
         <v>32</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="28" t="s">
         <v>33</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:33" s="10" customFormat="1" ht="50" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="43" t="s">
         <v>147</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:33" s="10" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B52" s="53" t="s">
         <v>150</v>
       </c>
@@ -3067,12 +3067,12 @@
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
     </row>
-    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
@@ -3106,48 +3106,48 @@
       <c r="AF54" s="46"/>
       <c r="AG54" s="46"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AG55" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="42"/>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="52"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="52"/>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="42"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="44"/>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
         <v>38</v>
       </c>
@@ -3197,18 +3197,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3230,7 +3230,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3238,15 +3238,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
@@ -3298,15 +3298,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3337,7 +3337,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>3</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>4</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>5</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>6</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>7</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>8</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10">
         <v>9</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10">
         <v>10</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10">
         <v>11</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10">
         <v>12</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>13</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>14</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10">
         <v>15</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>16</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="G57" s="13"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="37"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="37"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -4214,7 +4214,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -4325,21 +4325,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="17" width="16.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4410,7 +4410,7 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -4423,91 +4423,91 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="10" spans="1:17" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:17" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:7" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:B39">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <v>No leak was detected</v>
       </c>
@@ -4559,18 +4559,18 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G40"/>
     </row>
-    <row r="42" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="42" spans="2:7" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B42" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G43"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47:B51">_carb_only_table_03[]</f>
         <v>Not applicable as no leak was detected</v>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
       </c>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
@@ -4658,19 +4658,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -4730,18 +4730,18 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4773,12 +4773,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -4817,24 +4817,24 @@
       <selection activeCell="A11" sqref="A11:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4844,26 +4844,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>86</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>86</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>86</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -5286,6 +5286,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5520,15 +5529,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
   <ds:schemaRefs>
@@ -5541,6 +5541,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5559,14 +5567,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F159F3F9-2CDD-449C-B6B2-FAF9029AFAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC05DC-923E-498D-A40E-C6C4497C3D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="2280" windowWidth="21600" windowHeight="11100" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4533" yWindow="2427" windowWidth="19200" windowHeight="11386" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2457,17 +2457,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.1171875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="4.703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65.703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="4.1171875" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2521,13 +2521,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -2597,12 +2597,12 @@
       <c r="AF6" s="46"/>
       <c r="AG6" s="46"/>
     </row>
-    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG7" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="E8" s="25"/>
       <c r="F8" s="41"/>
     </row>
-    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="48" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="E9" s="25"/>
       <c r="F9" s="41"/>
     </row>
-    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="49" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="E10" s="25"/>
       <c r="F10" s="41"/>
     </row>
-    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="50" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2638,7 @@
       <c r="E11" s="25"/>
       <c r="F11" s="41"/>
     </row>
-    <row r="12" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B12" s="47" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="E12" s="25"/>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B13" s="47" t="s">
         <v>8</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="E13" s="25"/>
       <c r="F13" s="41"/>
     </row>
-    <row r="14" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
@@ -2665,7 +2665,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="41"/>
     </row>
-    <row r="15" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B15" s="47" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="41"/>
     </row>
-    <row r="16" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B16" s="47" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="E17" s="25"/>
       <c r="F17" s="41"/>
     </row>
-    <row r="18" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B18" s="51" t="s">
         <v>13</v>
       </c>
@@ -2701,12 +2701,12 @@
       <c r="E18" s="25"/>
       <c r="F18" s="41"/>
     </row>
-    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG20" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
@@ -2740,12 +2740,12 @@
       <c r="AF21" s="46"/>
       <c r="AG21" s="46"/>
     </row>
-    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG22" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B23" s="47" t="s">
         <v>14</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="E23" s="47"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B24" s="47" t="s">
         <v>15</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="25"/>
     </row>
-    <row r="25" spans="2:33" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B25" s="47" t="s">
         <v>16</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="25"/>
     </row>
-    <row r="26" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B26" s="47" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="E26" s="47"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B27" s="47" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="E27" s="47"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B28" s="47" t="s">
         <v>19</v>
       </c>
@@ -2798,12 +2798,12 @@
       <c r="F28" s="41"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG29" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -2837,12 +2837,12 @@
       <c r="AF30" s="46"/>
       <c r="AG30" s="46"/>
     </row>
-    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG31" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B32" s="41" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="E32" s="44"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B33" s="41" t="s">
         <v>21</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="E33" s="44"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B34" s="41" t="s">
         <v>22</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="E34" s="44"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B35" s="41" t="s">
         <v>23</v>
       </c>
@@ -2878,7 +2878,7 @@
       <c r="E35" s="44"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B36" s="41" t="s">
         <v>24</v>
       </c>
@@ -2887,12 +2887,12 @@
       <c r="E36" s="44"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG37" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B38" s="45"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
@@ -2926,12 +2926,12 @@
       <c r="AF38" s="46"/>
       <c r="AG38" s="46"/>
     </row>
-    <row r="39" spans="2:33" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:33" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AG39" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="41" t="s">
         <v>25</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="G40" s="26"/>
     </row>
-    <row r="41" spans="2:33" s="10" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B41" s="41" t="s">
         <v>27</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B42" s="28" t="s">
         <v>28</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="D42" s="42"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="D43" s="42"/>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
@@ -2974,12 +2974,12 @@
       <c r="D44" s="42"/>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG45" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
@@ -3013,13 +3013,13 @@
       <c r="AF46" s="46"/>
       <c r="AG46" s="46"/>
     </row>
-    <row r="47" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B47" s="41"/>
       <c r="AG47" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B49" s="36" t="s">
         <v>32</v>
       </c>
@@ -3038,7 +3038,7 @@
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="2:33" s="10" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:33" s="10" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="28" t="s">
         <v>33</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="43" t="s">
         <v>147</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="2:33" s="10" customFormat="1" ht="46.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="B52" s="53" t="s">
         <v>150</v>
       </c>
@@ -3067,12 +3067,12 @@
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
     </row>
-    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B54" s="45"/>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
@@ -3106,48 +3106,48 @@
       <c r="AF54" s="46"/>
       <c r="AG54" s="46"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG55" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B56" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="42"/>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B57" s="41" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="52"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D58" s="52"/>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="42"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
       <c r="B60" s="44"/>
       <c r="D60" s="29"/>
     </row>
-    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="G61" s="26"/>
     </row>
-    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="63" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B63" s="28" t="s">
         <v>38</v>
       </c>
@@ -3197,18 +3197,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3230,7 +3230,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3238,15 +3238,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B10" s="13" t="s">
         <v>45</v>
       </c>
@@ -3265,7 +3265,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B11" s="13" t="s">
         <v>47</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:18" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
@@ -3298,15 +3298,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B15" s="10"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -3337,7 +3337,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" s="10" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B19" s="10">
         <v>1</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" s="10" customFormat="1" ht="409.6" x14ac:dyDescent="0.5">
       <c r="B20" s="10">
         <v>2</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B21" s="10">
         <v>3</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B22" s="10">
         <v>4</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B23" s="10">
         <v>5</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B24" s="10">
         <v>6</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B25" s="10">
         <v>7</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B26" s="10">
         <v>8</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B27" s="10">
         <v>9</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B28" s="10">
         <v>10</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B29" s="10">
         <v>11</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B30" s="10">
         <v>12</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B31" s="10">
         <v>13</v>
       </c>
@@ -3507,7 +3507,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B32" s="10">
         <v>14</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B33" s="10">
         <v>15</v>
       </c>
@@ -3525,7 +3525,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B34" s="10">
         <v>16</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B35" s="10">
         <v>17</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B36" s="10">
         <v>18</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B37" s="10">
         <v>19</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B38" s="10">
         <v>20</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B39" s="10">
         <v>21</v>
       </c>
@@ -3579,7 +3579,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B40" s="10">
         <v>22</v>
       </c>
@@ -3588,7 +3588,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B41" s="10">
         <v>23</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B42" s="10">
         <v>24</v>
       </c>
@@ -3606,7 +3606,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B43" s="10">
         <v>25</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B44" s="10">
         <v>26</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B45" s="10">
         <v>27</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B46" s="10">
         <v>28</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B47" s="10">
         <v>29</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B48" s="10">
         <v>30</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B49" s="10">
         <v>31</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B50" s="10">
         <v>32</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B51" s="10">
         <v>33</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B52" s="10">
         <v>34</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B53" s="10">
         <v>35</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B54" s="10">
         <v>36</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B55" s="10">
         <v>37</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B56" s="10">
         <v>38</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="10">
         <v>39</v>
       </c>
@@ -3742,7 +3742,7 @@
       <c r="G57" s="13"/>
       <c r="L57" s="17"/>
     </row>
-    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B58" s="10">
         <v>40</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B59" s="10">
         <v>41</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B60" s="10">
         <v>42</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B61" s="10">
         <v>43</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B62" s="10">
         <v>44</v>
       </c>
@@ -3787,7 +3787,7 @@
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="10">
         <v>45</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B64" s="10">
         <v>46</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B65" s="10">
         <v>47</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B66" s="10">
         <v>48</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B67" s="10">
         <v>49</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B68" s="10">
         <v>50</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="F68" s="13"/>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B69" s="10">
         <v>51</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B70" s="10">
         <v>52</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B71" s="10">
         <v>53</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B72" s="10">
         <v>54</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="10">
         <v>55</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="10">
         <v>56</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B75" s="10">
         <v>57</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="F75" s="13"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B76" s="10">
         <v>58</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B77" s="10">
         <v>59</v>
       </c>
@@ -3922,7 +3922,7 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B78" s="10">
         <v>60</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B79" s="10">
         <v>61</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B80" s="10">
         <v>62</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B81" s="10">
         <v>63</v>
       </c>
@@ -3958,7 +3958,7 @@
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B82" s="10">
         <v>64</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
     </row>
-    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B83" s="10">
         <v>65</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B84" s="10">
         <v>66</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="13"/>
     </row>
-    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B85" s="10">
         <v>67</v>
       </c>
@@ -3993,7 +3993,7 @@
       <c r="F85" s="13"/>
       <c r="G85" s="13"/>
     </row>
-    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B86" s="10">
         <v>68</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B87" s="10">
         <v>69</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B88" s="10">
         <v>70</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="F88" s="13"/>
       <c r="G88" s="37"/>
     </row>
-    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B89" s="10">
         <v>71</v>
       </c>
@@ -4029,7 +4029,7 @@
       <c r="F89" s="13"/>
       <c r="G89" s="37"/>
     </row>
-    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B90" s="10">
         <v>72</v>
       </c>
@@ -4038,7 +4038,7 @@
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B91" s="10">
         <v>73</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="F91" s="13"/>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B92" s="10">
         <v>74</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B93" s="10">
         <v>75</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B94" s="10">
         <v>76</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B95" s="10">
         <v>77</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B96" s="10">
         <v>78</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B97" s="10">
         <v>79</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B98" s="10">
         <v>80</v>
       </c>
@@ -4110,7 +4110,7 @@
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B99" s="10">
         <v>81</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B100" s="10">
         <v>82</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
     </row>
-    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B101" s="10">
         <v>83</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
     </row>
-    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B102" s="10">
         <v>84</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
     </row>
-    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B103" s="10">
         <v>85</v>
       </c>
@@ -4155,7 +4155,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B104" s="10">
         <v>86</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B105" s="10">
         <v>87</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B106" s="10">
         <v>88</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="F106" s="13"/>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B107" s="10">
         <v>89</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="F107" s="13"/>
       <c r="G107" s="13"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B108" s="10">
         <v>90</v>
       </c>
@@ -4204,7 +4204,7 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B109" s="10">
         <v>91</v>
       </c>
@@ -4214,7 +4214,7 @@
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B110" s="10">
         <v>92</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B111" s="10">
         <v>93</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="F111" s="13"/>
       <c r="G111" s="13"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B112" s="10">
         <v>94</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="F112" s="13"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B113" s="10">
         <v>95</v>
       </c>
@@ -4253,7 +4253,7 @@
       <c r="F113" s="13"/>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B114" s="10">
         <v>96</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="F114" s="13"/>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B115" s="10">
         <v>97</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B116" s="10">
         <v>98</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="F116" s="13"/>
       <c r="G116" s="13"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B117" s="10">
         <v>99</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="F117" s="13"/>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B118" s="10">
         <v>100</v>
       </c>
@@ -4325,21 +4325,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="17" width="16.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1171875" customWidth="1"/>
+    <col min="4" max="5" width="16.703125" customWidth="1"/>
+    <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4359,7 +4359,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -4410,7 +4410,7 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -4423,91 +4423,91 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="10" spans="1:17" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B10" s="40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B32" s="40" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G33"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="G34"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="G36"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B37" t="str" cm="1">
         <f t="array" ref="B37:B39">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="G37"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B38" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B39" t="str">
         <v>No leak was detected</v>
       </c>
@@ -4559,18 +4559,18 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G40"/>
     </row>
-    <row r="42" spans="2:7" s="40" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B42" s="40" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G43"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
@@ -4579,12 +4579,12 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="G45"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B47" t="str" cm="1">
         <f t="array" ref="B47:B51">_carb_only_table_03[]</f>
         <v>Not applicable as no leak was detected</v>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B48" t="str">
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
       </c>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B49" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B50" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.5">
       <c r="B51" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
@@ -4658,19 +4658,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="9" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="4" max="9" width="8.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B14" s="5" t="s">
         <v>84</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -4730,18 +4730,18 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="30.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4773,12 +4773,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="12" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>93</v>
       </c>
@@ -4817,24 +4817,24 @@
       <selection activeCell="A11" sqref="A11:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="2" width="25.1171875" customWidth="1"/>
+    <col min="3" max="3" width="16.41015625" customWidth="1"/>
+    <col min="4" max="4" width="32.41015625" customWidth="1"/>
+    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B2" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="12"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -4844,26 +4844,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C5" s="1"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C6" s="1"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C7" s="1"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C8" s="1"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
       <c r="B10" s="5" t="s">
         <v>84</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>86</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>86</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B16" t="s">
         <v>86</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" t="s">
         <v>86</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B22" t="s">
         <v>86</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>86</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>86</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>86</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>86</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>86</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>86</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B34" t="s">
         <v>86</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B36" t="s">
         <v>86</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -5275,17 +5275,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5294,7 +5283,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5529,18 +5518,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5548,7 +5537,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5567,6 +5556,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBC05DC-923E-498D-A40E-C6C4497C3D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D159D-0110-4FC8-84EA-9900FBDEB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4533" yWindow="2427" windowWidth="19200" windowHeight="11386" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
-    <sheet name="_issue_tracking" sheetId="7" r:id="rId2"/>
-    <sheet name="_carb_only" sheetId="2" r:id="rId3"/>
-    <sheet name="_json_schema" sheetId="3" r:id="rId4"/>
-    <sheet name="_json_metadata" sheetId="4" r:id="rId5"/>
-    <sheet name="_named_ranges" sheetId="8" r:id="rId6"/>
+    <sheet name="_versioning" sheetId="9" r:id="rId2"/>
+    <sheet name="_issue_tracking" sheetId="7" r:id="rId3"/>
+    <sheet name="_carb_only" sheetId="2" r:id="rId4"/>
+    <sheet name="_json_schema" sheetId="3" r:id="rId5"/>
+    <sheet name="_json_metadata" sheetId="4" r:id="rId6"/>
+    <sheet name="_named_ranges" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="jinja_additional_activities">'Feedback Form'!$D$44</definedName>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="174">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -961,6 +962,34 @@
   <si>
     <t>generic_v01_00</t>
   </si>
+  <si>
+    <t>Spreadsheet Versions</t>
+  </si>
+  <si>
+    <t>Notes about the the differences between spreadsheet versions</t>
+  </si>
+  <si>
+    <t>The spreadsheet version is defined by the _vxxx where xxx represents the version</t>
+  </si>
+  <si>
+    <t>Some files have the same version number, but have different content. The _RD, and _ISD are used to differentiate these files.</t>
+  </si>
+  <si>
+    <t>Table 1. Version Overview</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>v002</t>
+  </si>
+  <si>
+    <t>Going forward the sector is 'Generic' and the schema is 'generic_v01_00'
+There may be previous version v002 files that were created with different sector and schema numbers, those may need to be manually changed to the correct sector/schema before ingested into the portal website.</t>
+  </si>
 </sst>
 </file>
 
@@ -970,7 +999,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,14 +1039,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1220,10 +1241,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1234,10 +1255,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1245,8 +1266,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1255,75 +1276,71 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,7 +1348,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1378,13 +1395,20 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A763DB28-C2D7-4D86-94F7-D05CFB9105EC}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{34B4562B-54D1-406A-9AEB-82C17D409F56}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1427,6 +1451,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2101,6 +2134,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24B4DD22-C149-49D6-979D-49FC4A72401E}" name="_issue_tracking_Table_0189" displayName="_issue_tracking_Table_0189" ref="B11:D26" totalsRowShown="0">
+  <autoFilter ref="B11:D26" xr:uid="{AA0102E3-3FDB-4D2A-A0C1-BF2A24336849}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{446405AA-9B70-4ACC-BBA1-4956A88DB592}" name="Version" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{30DC7910-3AEF-498E-9B2C-3A404841B758}" name="Date" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9098282D-C206-4124-8C8A-9D57C2A966A9}" name="Notes" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{88E4CF48-AAEC-4756-B8D6-56F7F8A93943}" name="_issue_tracking_Table_01" displayName="_issue_tracking_Table_01" ref="B9:C13" totalsRowShown="0">
   <autoFilter ref="B9:C13" xr:uid="{24D72A52-95E4-464B-93BB-49FD17A99B8E}"/>
   <tableColumns count="2">
@@ -2111,7 +2156,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE64B9BE-CE69-4FB3-8E34-6D366DC757D7}" name="_issue_tracking_Table_02" displayName="_issue_tracking_Table_02" ref="B18:G118" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="B18:G118" xr:uid="{6B7A3421-D3A9-46B3-AA8A-01814CFA791D}"/>
   <tableColumns count="6">
@@ -2128,7 +2173,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E7BDA69-C89B-4381-ABB2-9131BBCB8805}" name="_carb_only_table_01" displayName="_carb_only_table_01" ref="B14:B15" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9F9773EF-4A8E-493A-94D1-E6DA97B24D04}" name="Please Select"/>
@@ -2137,7 +2182,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16A34581-BC95-4D0F-9AF0-175A16ED9191}" name="_carb_only_table_03" displayName="_carb_only_table_03" ref="B25:B29" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{71A1706F-E936-42A7-8A10-D6A3E160D5B9}" name="Please Select"/>
@@ -2146,7 +2191,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC461447-88AA-4FA5-BE22-B26902F253C2}" name="_carb_only_table_02" displayName="_carb_only_table_02" ref="B19:B21" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7ABEE79C-A00F-41A0-83EF-65CAB812F23E}" name="Please Select"/>
@@ -2510,7 +2555,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="41"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:33" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.5">
       <c r="B3" s="21" t="s">
@@ -2519,7 +2564,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="44"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="2:33" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="22"/>
@@ -2564,38 +2609,38 @@
       </c>
     </row>
     <row r="6" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="46"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
     </row>
     <row r="7" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG7" s="20" t="s">
@@ -2603,103 +2648,103 @@
       </c>
     </row>
     <row r="8" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="41"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="41"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="41"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="2:33" s="26" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="41"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="41"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="41"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="41"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="41"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="41"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="20" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG20" s="20" t="s">
@@ -2707,38 +2752,38 @@
       </c>
     </row>
     <row r="21" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
     </row>
     <row r="22" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG22" s="20" t="s">
@@ -2746,56 +2791,56 @@
       </c>
     </row>
     <row r="23" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="47"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="46"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="55"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="47"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="46"/>
       <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="46"/>
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="41"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
@@ -2804,38 +2849,38 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="26"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="46"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="46"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="46"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="46"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="46"/>
-      <c r="AG30" s="46"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="45"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="45"/>
     </row>
     <row r="31" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG31" s="20" t="s">
@@ -2843,48 +2888,48 @@
       </c>
     </row>
     <row r="32" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="44"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="43"/>
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="44"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="43"/>
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="44"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="43"/>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="44"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="43"/>
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="44"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="43"/>
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
@@ -2893,38 +2938,38 @@
       </c>
     </row>
     <row r="38" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="26"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="46"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="46"/>
-      <c r="AC38" s="46"/>
-      <c r="AD38" s="46"/>
-      <c r="AE38" s="46"/>
-      <c r="AF38" s="46"/>
-      <c r="AG38" s="46"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
     </row>
     <row r="39" spans="2:33" s="20" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AG39" s="20" t="s">
@@ -2932,21 +2977,21 @@
       </c>
     </row>
     <row r="40" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="32" t="s">
+      <c r="C40" s="43"/>
+      <c r="D40" s="57" t="s">
         <v>26</v>
       </c>
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="27"/>
       <c r="G41" s="26"/>
     </row>
@@ -2954,24 +2999,24 @@
       <c r="B42" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="42"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="41"/>
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
       <c r="B43" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="42"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="41"/>
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:33" s="10" customFormat="1" ht="45.35" x14ac:dyDescent="0.5">
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="42"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="41"/>
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
@@ -2980,41 +3025,41 @@
       </c>
     </row>
     <row r="46" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="46"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="45"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="45"/>
+      <c r="X46" s="45"/>
+      <c r="Y46" s="45"/>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="45"/>
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="45"/>
+      <c r="AE46" s="45"/>
+      <c r="AF46" s="45"/>
+      <c r="AG46" s="45"/>
     </row>
     <row r="47" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B47" s="41"/>
+      <c r="B47" s="40"/>
       <c r="AG47" s="20" t="s">
         <v>0</v>
       </c>
@@ -3023,18 +3068,18 @@
       <c r="B48" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="42"/>
+      <c r="D48" s="41"/>
       <c r="G48" s="26"/>
       <c r="AG48" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:33" s="10" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="35" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="20"/>
-      <c r="D49" s="42"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="20"/>
       <c r="G49" s="26"/>
     </row>
@@ -3043,68 +3088,68 @@
         <v>33</v>
       </c>
       <c r="C50" s="20"/>
-      <c r="D50" s="42"/>
+      <c r="D50" s="41"/>
       <c r="E50" s="20"/>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="2:33" s="10" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="42" t="s">
         <v>147</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="57" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="20"/>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="2:33" s="10" customFormat="1" ht="30.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="52" t="s">
         <v>150</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="42"/>
+      <c r="D52" s="41"/>
       <c r="E52" s="20"/>
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
     </row>
     <row r="54" spans="2:33" s="24" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="26"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
-      <c r="P54" s="46"/>
-      <c r="Q54" s="46"/>
-      <c r="R54" s="46"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="46"/>
-      <c r="V54" s="46"/>
-      <c r="W54" s="46"/>
-      <c r="X54" s="46"/>
-      <c r="Y54" s="46"/>
-      <c r="Z54" s="46"/>
-      <c r="AA54" s="46"/>
-      <c r="AB54" s="46"/>
-      <c r="AC54" s="46"/>
-      <c r="AD54" s="46"/>
-      <c r="AE54" s="46"/>
-      <c r="AF54" s="46"/>
-      <c r="AG54" s="46"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="45"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="45"/>
+      <c r="AE54" s="45"/>
+      <c r="AF54" s="45"/>
+      <c r="AG54" s="45"/>
     </row>
     <row r="55" spans="2:33" s="20" customFormat="1" x14ac:dyDescent="0.5">
       <c r="AG55" s="20" t="s">
@@ -3112,35 +3157,35 @@
       </c>
     </row>
     <row r="56" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="42"/>
+      <c r="D56" s="41"/>
       <c r="G56" s="26"/>
     </row>
     <row r="57" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="52"/>
+      <c r="D57" s="51"/>
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B58" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="52"/>
+      <c r="D58" s="51"/>
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="2:33" s="10" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
       <c r="B59" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="42"/>
+      <c r="D59" s="41"/>
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
-      <c r="B60" s="44"/>
+      <c r="B60" s="43"/>
       <c r="D60" s="29"/>
     </row>
     <row r="61" spans="2:33" s="30" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
@@ -3152,7 +3197,7 @@
         <v>38</v>
       </c>
       <c r="C63" s="31"/>
-      <c r="D63" s="42"/>
+      <c r="D63" s="41"/>
       <c r="G63" s="26"/>
     </row>
   </sheetData>
@@ -3191,6 +3236,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3728AE-E92C-46B7-A20A-81D5093D7325}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A2:D26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="2" max="3" width="10.64453125" customWidth="1"/>
+    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B2" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="71.7" x14ac:dyDescent="0.5">
+      <c r="B12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="56">
+        <v>45841</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B13" s="13"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B15" s="13"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D22213-201A-47BB-823E-078EE6D590B0}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:R118"/>
@@ -4018,7 +4217,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="37"/>
+      <c r="G88" s="36"/>
     </row>
     <row r="89" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B89" s="10">
@@ -4027,7 +4226,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
       <c r="F89" s="13"/>
-      <c r="G89" s="37"/>
+      <c r="G89" s="36"/>
     </row>
     <row r="90" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B90" s="10">
@@ -4045,13 +4244,13 @@
       <c r="C91" s="13"/>
       <c r="D91" s="14"/>
       <c r="F91" s="13"/>
-      <c r="G91" s="37"/>
+      <c r="G91" s="36"/>
     </row>
     <row r="92" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B92" s="10">
         <v>74</v>
       </c>
-      <c r="C92" s="38"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="14"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
@@ -4318,7 +4517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3FEB7-B2CF-40A1-B17B-C16D27097E6B}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Q51"/>
@@ -4334,8 +4533,8 @@
     <col min="6" max="17" width="16.703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:17" s="38" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B2" s="38" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4423,8 +4622,8 @@
       <c r="P8"/>
       <c r="Q8"/>
     </row>
-    <row r="10" spans="1:17" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B10" s="39" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4499,8 +4698,8 @@
     <row r="31" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G31"/>
     </row>
-    <row r="32" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B32" s="40" t="s">
+    <row r="32" spans="2:7" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B32" s="39" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4562,8 +4761,8 @@
     <row r="40" spans="2:7" x14ac:dyDescent="0.5">
       <c r="G40"/>
     </row>
-    <row r="42" spans="2:7" s="40" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
-      <c r="B42" s="40" t="s">
+    <row r="42" spans="2:7" s="39" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+      <c r="B42" s="39" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4649,13 +4848,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F195264-197C-43A4-9E55-72E4838651B8}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:C15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -4723,12 +4922,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F597CF2C-3C7B-4311-9270-982E05FB433E}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4808,7 +5009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D56CBE-D6C9-4948-B09E-324460C47E3F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:F37"/>

--- a/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728D159D-0110-4FC8-84EA-9900FBDEB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BD4D4-120F-4D27-85E8-6119A5924801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4333" yWindow="1073" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5013" yWindow="1753" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -5476,15 +5476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5719,7 +5710,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
@@ -5730,15 +5721,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5757,7 +5749,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5768,6 +5760,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>

--- a/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BD4D4-120F-4D27-85E8-6119A5924801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C53B4-8EAF-46B8-B9B4-F95263C06BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5013" yWindow="1753" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -1383,24 +1383,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2500,7 +2497,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2795,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="46"/>
       <c r="G23" s="26"/>
     </row>
@@ -2804,7 +2803,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="53"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="25"/>
     </row>
     <row r="25" spans="2:33" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -2812,7 +2811,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="2:33" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.5">
@@ -2820,7 +2819,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="53"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="46"/>
       <c r="G26" s="26"/>
     </row>
@@ -2829,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="53"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="46"/>
       <c r="G27" s="26"/>
     </row>
@@ -2838,7 +2837,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="46"/>
       <c r="F28" s="40"/>
       <c r="G28" s="26"/>
@@ -2981,7 +2980,7 @@
         <v>25</v>
       </c>
       <c r="C40" s="43"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="54" t="s">
         <v>26</v>
       </c>
       <c r="G40" s="26"/>
@@ -3097,7 +3096,7 @@
         <v>147</v>
       </c>
       <c r="C51" s="20"/>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="54" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="20"/>
@@ -3303,7 +3302,7 @@
       <c r="B12" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="53">
         <v>45841</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -3312,7 +3311,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B13" s="13"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
@@ -3322,7 +3321,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B15" s="13"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
@@ -5476,6 +5475,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -5710,17 +5720,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5731,6 +5730,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5749,17 +5759,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>

--- a/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
+++ b/feedback_forms/current_versions/generic_operator_feedback_v002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\current_versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C53B4-8EAF-46B8-B9B4-F95263C06BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8782D3A-1628-4262-A17A-038D087055DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3993" yWindow="733" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="4367" yWindow="1793" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="jinja_re_monitored_concentration">'Feedback Form'!$D$59</definedName>
     <definedName name="jinja_re_monitored_timestamp">'Feedback Form'!$D$58</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1390,13 +1390,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
